--- a/SatuSehat/Specs Format FHIR/custom/DiagnosticReport.xlsx
+++ b/SatuSehat/Specs Format FHIR/custom/DiagnosticReport.xlsx
@@ -792,53 +792,14 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,6 +870,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,569 +1194,575 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.1796875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
+      <c r="E9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="26" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="174" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="31" t="s">
+      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+      <c r="A12" s="8">
         <v>5</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="33" t="s">
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+      <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="33" t="s">
+      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="33" t="s">
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
+      <c r="A15" s="8">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="33" t="s">
+      <c r="E15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="A16" s="8">
         <v>9</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="33" t="s">
+      <c r="E16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
+      <c r="A17" s="8">
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="33" t="s">
+      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="32"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
+      <c r="A18" s="8">
         <v>11</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="33" t="s">
+      <c r="E18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+      <c r="A19" s="8">
         <v>12</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="33" t="s">
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="32"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
+      <c r="A20" s="8">
         <v>13</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="33" t="s">
+      <c r="F20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="32"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="8">
         <v>14</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="33" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="32"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+      <c r="A22" s="8">
         <v>15</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="37" t="s">
+      <c r="E22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="33" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="32"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
+      <c r="A23" s="8">
         <v>16</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="37" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="32"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
+      <c r="A24" s="8">
         <v>17</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="33" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="32"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -1769,12 +1775,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" location="Identifier" display="https://build.fhir.org/datatypes.html - Identifier"/>
